--- a/X2110-Camera/100x/beads-5/all-beads5-green.xlsx
+++ b/X2110-Camera/100x/beads-5/all-beads5-green.xlsx
@@ -24,12 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>centers</t>
   </si>
   <si>
     <t>sigmas</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Err AVG</t>
+  </si>
+  <si>
+    <t>ARR Width</t>
+  </si>
+  <si>
+    <t>Disper</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -50,12 +71,24 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -85,11 +118,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33375D8-FFA8-4810-AF19-A8A2D2AFC1CB}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,8 +465,11 @@
       <c r="C2">
         <v>29.314637937496869</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -441,8 +479,11 @@
       <c r="C3">
         <v>34.183995781208843</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -452,8 +493,11 @@
       <c r="C4">
         <v>28.90215171299112</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -463,8 +507,11 @@
       <c r="C5">
         <v>30.70219847673091</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -474,8 +521,11 @@
       <c r="C6">
         <v>29.22287147403086</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -485,8 +535,11 @@
       <c r="C7">
         <v>28.27501687489714</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -496,8 +549,11 @@
       <c r="C8">
         <v>29.468812323395301</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -507,8 +563,11 @@
       <c r="C9">
         <v>26.815164327315241</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -518,8 +577,11 @@
       <c r="C10">
         <v>25.007532115611291</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -529,8 +591,11 @@
       <c r="C11">
         <v>28.746898209377939</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -540,8 +605,11 @@
       <c r="C12">
         <v>21.809169900444221</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -551,8 +619,11 @@
       <c r="C13">
         <v>17.70415593914602</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -562,8 +633,11 @@
       <c r="C14">
         <v>20.150468099917319</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -573,8 +647,11 @@
       <c r="C15">
         <v>19.26620401995746</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -584,8 +661,11 @@
       <c r="C16">
         <v>19.585760415025138</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -595,8 +675,11 @@
       <c r="C17">
         <v>21.216365499352602</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -606,8 +689,11 @@
       <c r="C18">
         <v>31.15494529873007</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -617,8 +703,11 @@
       <c r="C19">
         <v>30.255199470866149</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -628,8 +717,11 @@
       <c r="C20">
         <v>29.75545879740849</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -639,8 +731,11 @@
       <c r="C21">
         <v>29.80642693393213</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -650,8 +745,11 @@
       <c r="C22">
         <v>29.67413549189051</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -661,8 +759,11 @@
       <c r="C23">
         <v>29.473731706902061</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>6</v>
       </c>
@@ -672,8 +773,11 @@
       <c r="C24">
         <v>29.554583648114061</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -683,8 +787,11 @@
       <c r="C25">
         <v>29.410978936495539</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>8</v>
       </c>
@@ -694,8 +801,11 @@
       <c r="C26">
         <v>29.16400567279296</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -705,8 +815,11 @@
       <c r="C27">
         <v>29.22528572116018</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>10</v>
       </c>
@@ -716,8 +829,11 @@
       <c r="C28">
         <v>29.09226254455352</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>11</v>
       </c>
@@ -727,8 +843,11 @@
       <c r="C29">
         <v>29.06168077054183</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>12</v>
       </c>
@@ -738,8 +857,11 @@
       <c r="C30">
         <v>32.286261357531579</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>13</v>
       </c>
@@ -749,41 +871,94 @@
       <c r="C31">
         <v>34.037128911271253</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33">
+      <c r="E31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2">
         <f>AVERAGE(B2:B31)</f>
         <v>579.28178262952349</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <f>AVERAGE(C2:C31)</f>
         <v>27.744116278969617</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2">
         <f>_xlfn.STDEV.P(B2:B31)</f>
         <v>2.6026862752375601</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <f>_xlfn.STDEV.P(C2:C31)</f>
         <v>4.2839655574057618</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35">
+      <c r="D34" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="2">
         <f>B34/SQRT(30)</f>
         <v>0.47518332768557037</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <f>C34/SQRT(30)</f>
         <v>0.78214152378877611</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <f>B34/B33*100</f>
+      <c r="D35" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2">
+        <f>B34/B33</f>
+        <v>4.4929537804956213E-3</v>
+      </c>
+      <c r="C37" s="3">
+        <f>C34/C33</f>
+        <v>0.15440987610959014</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2">
+        <f>B37*100</f>
         <v>0.44929537804956216</v>
+      </c>
+      <c r="C38" s="3">
+        <f>C37*100</f>
+        <v>15.440987610959015</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
